--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9702064587007324</v>
+        <v>0.9681783791380707</v>
       </c>
       <c r="D2">
-        <v>0.6023101666144726</v>
+        <v>0.558892892700422</v>
       </c>
       <c r="E2">
-        <v>0.9374330669649946</v>
+        <v>0.9489550238307864</v>
       </c>
       <c r="F2">
-        <v>0.4985440638811904</v>
+        <v>0.5007263934923354</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9702064587007324</v>
+        <v>0.9681783791380707</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6415240014653922</v>
+        <v>0.5569497369304761</v>
       </c>
       <c r="E3">
-        <v>0.9096897130527435</v>
+        <v>0.8880657230589044</v>
       </c>
       <c r="F3">
-        <v>0.5193428441280157</v>
+        <v>0.5441174782034848</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6023101666144726</v>
+        <v>0.558892892700422</v>
       </c>
       <c r="C4">
-        <v>0.6415240014653922</v>
+        <v>0.5569497369304761</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.556431037555619</v>
+        <v>0.6028125286686925</v>
       </c>
       <c r="F4">
-        <v>0.2025282116106291</v>
+        <v>0.1767662957478791</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9374330669649946</v>
+        <v>0.9489550238307864</v>
       </c>
       <c r="C5">
-        <v>0.9096897130527435</v>
+        <v>0.8880657230589044</v>
       </c>
       <c r="D5">
-        <v>0.556431037555619</v>
+        <v>0.6028125286686925</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5479306019810188</v>
+        <v>0.5879119629688141</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4985440638811904</v>
+        <v>0.5007263934923354</v>
       </c>
       <c r="C6">
-        <v>0.5193428441280157</v>
+        <v>0.5441174782034848</v>
       </c>
       <c r="D6">
-        <v>0.2025282116106291</v>
+        <v>0.1767662957478791</v>
       </c>
       <c r="E6">
-        <v>0.5479306019810188</v>
+        <v>0.5879119629688141</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03736887395601289</v>
+        <v>0.04061241660111244</v>
       </c>
       <c r="D2">
-        <v>0.5214272481301034</v>
+        <v>0.5987667449857927</v>
       </c>
       <c r="E2">
-        <v>-0.07853779185124188</v>
+        <v>-0.06517648862407824</v>
       </c>
       <c r="F2">
-        <v>-0.6772977072889662</v>
+        <v>-0.6912245288699611</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.03736887395601289</v>
+        <v>-0.04061241660111244</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4658648501543036</v>
+        <v>0.6017665082094732</v>
       </c>
       <c r="E3">
-        <v>-0.1134899084309328</v>
+        <v>-0.1433382472837913</v>
       </c>
       <c r="F3">
-        <v>-0.6448349676189312</v>
+        <v>-0.6217209777829579</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5214272481301034</v>
+        <v>-0.5987667449857927</v>
       </c>
       <c r="C4">
-        <v>-0.4658648501543036</v>
+        <v>-0.6017665082094732</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.5885642587399773</v>
+        <v>-0.5323767987562255</v>
       </c>
       <c r="F4">
-        <v>-1.276129360931785</v>
+        <v>-1.422544808300594</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07853779185124188</v>
+        <v>0.06517648862407824</v>
       </c>
       <c r="C5">
-        <v>0.1134899084309328</v>
+        <v>0.1433382472837913</v>
       </c>
       <c r="D5">
-        <v>0.5885642587399773</v>
+        <v>0.5323767987562255</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.6012910389981957</v>
+        <v>-0.5546112447853006</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6772977072889662</v>
+        <v>0.6912245288699611</v>
       </c>
       <c r="C6">
-        <v>0.6448349676189312</v>
+        <v>0.6217209777829579</v>
       </c>
       <c r="D6">
-        <v>1.276129360931785</v>
+        <v>1.422544808300594</v>
       </c>
       <c r="E6">
-        <v>0.6012910389981957</v>
+        <v>0.5546112447853006</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9681783791380707</v>
+        <v>0.06433146706440351</v>
       </c>
       <c r="D2">
-        <v>0.558892892700422</v>
+        <v>0.9545583039442835</v>
       </c>
       <c r="E2">
-        <v>0.9489550238307864</v>
+        <v>0.8282259721627003</v>
       </c>
       <c r="F2">
-        <v>0.5007263934923354</v>
+        <v>0.4771024706559439</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9681783791380707</v>
+        <v>0.06433146706440351</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5569497369304761</v>
+        <v>0.3093959002059081</v>
       </c>
       <c r="E3">
-        <v>0.8880657230589044</v>
+        <v>0.5096989942414445</v>
       </c>
       <c r="F3">
-        <v>0.5441174782034848</v>
+        <v>0.4887740244657359</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.558892892700422</v>
+        <v>0.9545583039442835</v>
       </c>
       <c r="C4">
-        <v>0.5569497369304761</v>
+        <v>0.3093959002059081</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.6028125286686925</v>
+        <v>0.749577457482423</v>
       </c>
       <c r="F4">
-        <v>0.1767662957478791</v>
+        <v>0.4305928917429362</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9489550238307864</v>
+        <v>0.8282259721627003</v>
       </c>
       <c r="C5">
-        <v>0.8880657230589044</v>
+        <v>0.5096989942414445</v>
       </c>
       <c r="D5">
-        <v>0.6028125286686925</v>
+        <v>0.749577457482423</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5879119629688141</v>
+        <v>0.7134786091638006</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5007263934923354</v>
+        <v>0.4771024706559439</v>
       </c>
       <c r="C6">
-        <v>0.5441174782034848</v>
+        <v>0.4887740244657359</v>
       </c>
       <c r="D6">
-        <v>0.1767662957478791</v>
+        <v>0.4305928917429362</v>
       </c>
       <c r="E6">
-        <v>0.5879119629688141</v>
+        <v>0.7134786091638006</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04061241660111244</v>
+        <v>1.947642349887507</v>
       </c>
       <c r="D2">
-        <v>0.5987667449857927</v>
+        <v>0.05763671950944516</v>
       </c>
       <c r="E2">
-        <v>-0.06517648862407824</v>
+        <v>0.2195759333917925</v>
       </c>
       <c r="F2">
-        <v>-0.6912245288699611</v>
+        <v>0.7233226216402938</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.04061241660111244</v>
+        <v>-1.947642349887507</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6017665082094732</v>
+        <v>-1.040527169678653</v>
       </c>
       <c r="E3">
-        <v>-0.1433382472837913</v>
+        <v>-0.6702093084268443</v>
       </c>
       <c r="F3">
-        <v>-0.6217209777829579</v>
+        <v>-0.7040721532667129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5987667449857927</v>
+        <v>-0.05763671950944516</v>
       </c>
       <c r="C4">
-        <v>-0.6017665082094732</v>
+        <v>1.040527169678653</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.5323767987562255</v>
+        <v>0.3232245012206486</v>
       </c>
       <c r="F4">
-        <v>-1.422544808300594</v>
+        <v>0.8029509678826726</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06517648862407824</v>
+        <v>-0.2195759333917925</v>
       </c>
       <c r="C5">
-        <v>0.1433382472837913</v>
+        <v>0.6702093084268443</v>
       </c>
       <c r="D5">
-        <v>0.5323767987562255</v>
+        <v>-0.3232245012206486</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.5546112447853006</v>
+        <v>0.3719637629163016</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6912245288699611</v>
+        <v>-0.7233226216402938</v>
       </c>
       <c r="C6">
-        <v>0.6217209777829579</v>
+        <v>0.7040721532667129</v>
       </c>
       <c r="D6">
-        <v>1.422544808300594</v>
+        <v>-0.8029509678826726</v>
       </c>
       <c r="E6">
-        <v>0.5546112447853006</v>
+        <v>-0.3719637629163016</v>
       </c>
       <c r="F6">
         <v>0</v>
